--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.263122</v>
+        <v>6.775549333333333</v>
       </c>
       <c r="H2">
-        <v>9.789365999999999</v>
+        <v>20.326648</v>
       </c>
       <c r="I2">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="J2">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.07178566666666668</v>
+        <v>6.804012333333334</v>
       </c>
       <c r="N2">
-        <v>0.215357</v>
+        <v>20.412037</v>
       </c>
       <c r="O2">
-        <v>0.005162424838340572</v>
+        <v>0.5269116569106099</v>
       </c>
       <c r="P2">
-        <v>0.005162424838340572</v>
+        <v>0.5269116569106099</v>
       </c>
       <c r="Q2">
-        <v>0.2342453881846667</v>
+        <v>46.10092122910844</v>
       </c>
       <c r="R2">
-        <v>2.108208493662</v>
+        <v>414.908291061976</v>
       </c>
       <c r="S2">
-        <v>0.00182304620438938</v>
+        <v>0.2796717751488632</v>
       </c>
       <c r="T2">
-        <v>0.00182304620438938</v>
+        <v>0.2796717751488632</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.263122</v>
+        <v>6.775549333333333</v>
       </c>
       <c r="H3">
-        <v>9.789365999999999</v>
+        <v>20.326648</v>
       </c>
       <c r="I3">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="J3">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.804012333333333</v>
+        <v>6.095937333333333</v>
       </c>
       <c r="N3">
-        <v>20.412037</v>
+        <v>18.287812</v>
       </c>
       <c r="O3">
-        <v>0.4893066248597759</v>
+        <v>0.4720773983600821</v>
       </c>
       <c r="P3">
-        <v>0.4893066248597758</v>
+        <v>0.472077398360082</v>
       </c>
       <c r="Q3">
-        <v>22.20232233317133</v>
+        <v>41.30332413490844</v>
       </c>
       <c r="R3">
-        <v>199.820900998542</v>
+        <v>371.7299172141759</v>
       </c>
       <c r="S3">
-        <v>0.1727925564374763</v>
+        <v>0.2505670965435092</v>
       </c>
       <c r="T3">
-        <v>0.1727925564374763</v>
+        <v>0.2505670965435092</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.263122</v>
+        <v>6.775549333333333</v>
       </c>
       <c r="H4">
-        <v>9.789365999999999</v>
+        <v>20.326648</v>
       </c>
       <c r="I4">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="J4">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.000615333333333</v>
+        <v>0.01305433333333333</v>
       </c>
       <c r="N4">
-        <v>21.001846</v>
+        <v>0.039163</v>
       </c>
       <c r="O4">
-        <v>0.5034452162753176</v>
+        <v>0.001010944729308016</v>
       </c>
       <c r="P4">
-        <v>0.5034452162753176</v>
+        <v>0.001010944729308016</v>
       </c>
       <c r="Q4">
-        <v>22.84386190773733</v>
+        <v>0.08845027951377778</v>
       </c>
       <c r="R4">
-        <v>205.594757169636</v>
+        <v>0.796052515624</v>
       </c>
       <c r="S4">
-        <v>0.1777854243673077</v>
+        <v>0.0005365846500354144</v>
       </c>
       <c r="T4">
-        <v>0.1777854243673077</v>
+        <v>0.0005365846500354144</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.263122</v>
+        <v>4.367310666666667</v>
       </c>
       <c r="H5">
-        <v>9.789365999999999</v>
+        <v>13.101932</v>
       </c>
       <c r="I5">
-        <v>0.3531375780718168</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="J5">
-        <v>0.3531375780718168</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.029003</v>
+        <v>6.804012333333334</v>
       </c>
       <c r="N5">
-        <v>0.087009</v>
+        <v>20.412037</v>
       </c>
       <c r="O5">
-        <v>0.002085734026566003</v>
+        <v>0.5269116569106099</v>
       </c>
       <c r="P5">
-        <v>0.002085734026566003</v>
+        <v>0.5269116569106099</v>
       </c>
       <c r="Q5">
-        <v>0.09464032736599999</v>
+        <v>29.71523563949822</v>
       </c>
       <c r="R5">
-        <v>0.851762946294</v>
+        <v>267.437120755484</v>
       </c>
       <c r="S5">
-        <v>0.0007365510626434968</v>
+        <v>0.180267822826454</v>
       </c>
       <c r="T5">
-        <v>0.0007365510626434968</v>
+        <v>0.180267822826454</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>13.101932</v>
       </c>
       <c r="I6">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="J6">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.07178566666666668</v>
+        <v>6.095937333333333</v>
       </c>
       <c r="N6">
-        <v>0.215357</v>
+        <v>18.287812</v>
       </c>
       <c r="O6">
-        <v>0.005162424838340572</v>
+        <v>0.4720773983600821</v>
       </c>
       <c r="P6">
-        <v>0.005162424838340572</v>
+        <v>0.472077398360082</v>
       </c>
       <c r="Q6">
-        <v>0.3135103077471111</v>
+        <v>26.62285213919822</v>
       </c>
       <c r="R6">
-        <v>2.821592769724</v>
+        <v>239.605669252784</v>
       </c>
       <c r="S6">
-        <v>0.002439936090117354</v>
+        <v>0.1615078423333987</v>
       </c>
       <c r="T6">
-        <v>0.002439936090117354</v>
+        <v>0.1615078423333986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>13.101932</v>
       </c>
       <c r="I7">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="J7">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>6.804012333333333</v>
+        <v>0.01305433333333333</v>
       </c>
       <c r="N7">
-        <v>20.412037</v>
+        <v>0.039163</v>
       </c>
       <c r="O7">
-        <v>0.4893066248597759</v>
+        <v>0.001010944729308016</v>
       </c>
       <c r="P7">
-        <v>0.4893066248597758</v>
+        <v>0.001010944729308016</v>
       </c>
       <c r="Q7">
-        <v>29.71523563949822</v>
+        <v>0.05701232921288889</v>
       </c>
       <c r="R7">
-        <v>267.437120755484</v>
+        <v>0.513110962916</v>
       </c>
       <c r="S7">
-        <v>0.231262813603044</v>
+        <v>0.0003458659586670561</v>
       </c>
       <c r="T7">
-        <v>0.231262813603044</v>
+        <v>0.0003458659586670561</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.367310666666667</v>
+        <v>1.622518</v>
       </c>
       <c r="H8">
-        <v>13.101932</v>
+        <v>4.867554</v>
       </c>
       <c r="I8">
-        <v>0.4726337266929886</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="J8">
-        <v>0.4726337266929886</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.000615333333333</v>
+        <v>6.804012333333334</v>
       </c>
       <c r="N8">
-        <v>21.001846</v>
+        <v>20.412037</v>
       </c>
       <c r="O8">
-        <v>0.5034452162753176</v>
+        <v>0.5269116569106099</v>
       </c>
       <c r="P8">
-        <v>0.5034452162753176</v>
+        <v>0.5269116569106099</v>
       </c>
       <c r="Q8">
-        <v>30.57386201849689</v>
+        <v>11.03963248305534</v>
       </c>
       <c r="R8">
-        <v>275.164758166472</v>
+        <v>99.35669234749801</v>
       </c>
       <c r="S8">
-        <v>0.237945188753961</v>
+        <v>0.06697205893529272</v>
       </c>
       <c r="T8">
-        <v>0.237945188753961</v>
+        <v>0.06697205893529272</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.367310666666667</v>
+        <v>1.622518</v>
       </c>
       <c r="H9">
-        <v>13.101932</v>
+        <v>4.867554</v>
       </c>
       <c r="I9">
-        <v>0.4726337266929886</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="J9">
-        <v>0.4726337266929886</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.029003</v>
+        <v>6.095937333333333</v>
       </c>
       <c r="N9">
-        <v>0.087009</v>
+        <v>18.287812</v>
       </c>
       <c r="O9">
-        <v>0.002085734026566003</v>
+        <v>0.4720773983600821</v>
       </c>
       <c r="P9">
-        <v>0.002085734026566003</v>
+        <v>0.472077398360082</v>
       </c>
       <c r="Q9">
-        <v>0.1266651112653333</v>
+        <v>9.890768050205333</v>
       </c>
       <c r="R9">
-        <v>1.139986001388</v>
+        <v>89.016912451848</v>
       </c>
       <c r="S9">
-        <v>0.0009857882458662631</v>
+        <v>0.06000245948317423</v>
       </c>
       <c r="T9">
-        <v>0.0009857882458662631</v>
+        <v>0.06000245948317422</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.609937666666666</v>
+        <v>1.622518</v>
       </c>
       <c r="H10">
-        <v>4.829813</v>
+        <v>4.867554</v>
       </c>
       <c r="I10">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="J10">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,214 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.07178566666666668</v>
+        <v>0.01305433333333333</v>
       </c>
       <c r="N10">
-        <v>0.215357</v>
+        <v>0.039163</v>
       </c>
       <c r="O10">
-        <v>0.005162424838340572</v>
+        <v>0.001010944729308016</v>
       </c>
       <c r="P10">
-        <v>0.005162424838340572</v>
+        <v>0.001010944729308016</v>
       </c>
       <c r="Q10">
-        <v>0.1155704486934444</v>
+        <v>0.02118089081133334</v>
       </c>
       <c r="R10">
-        <v>1.040134038241</v>
+        <v>0.190628017302</v>
       </c>
       <c r="S10">
-        <v>0.0008994425438338382</v>
+        <v>0.0001284941206055461</v>
       </c>
       <c r="T10">
-        <v>0.0008994425438338382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.609937666666666</v>
-      </c>
-      <c r="H11">
-        <v>4.829813</v>
-      </c>
-      <c r="I11">
-        <v>0.1742286952351946</v>
-      </c>
-      <c r="J11">
-        <v>0.1742286952351946</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>6.804012333333333</v>
-      </c>
-      <c r="N11">
-        <v>20.412037</v>
-      </c>
-      <c r="O11">
-        <v>0.4893066248597759</v>
-      </c>
-      <c r="P11">
-        <v>0.4893066248597758</v>
-      </c>
-      <c r="Q11">
-        <v>10.95403573989789</v>
-      </c>
-      <c r="R11">
-        <v>98.58632165908098</v>
-      </c>
-      <c r="S11">
-        <v>0.08525125481925558</v>
-      </c>
-      <c r="T11">
-        <v>0.08525125481925556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.609937666666666</v>
-      </c>
-      <c r="H12">
-        <v>4.829813</v>
-      </c>
-      <c r="I12">
-        <v>0.1742286952351946</v>
-      </c>
-      <c r="J12">
-        <v>0.1742286952351946</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>7.000615333333333</v>
-      </c>
-      <c r="N12">
-        <v>21.001846</v>
-      </c>
-      <c r="O12">
-        <v>0.5034452162753176</v>
-      </c>
-      <c r="P12">
-        <v>0.5034452162753176</v>
-      </c>
-      <c r="Q12">
-        <v>11.27055431497755</v>
-      </c>
-      <c r="R12">
-        <v>101.434988834798</v>
-      </c>
-      <c r="S12">
-        <v>0.08771460315404893</v>
-      </c>
-      <c r="T12">
-        <v>0.08771460315404893</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.609937666666666</v>
-      </c>
-      <c r="H13">
-        <v>4.829813</v>
-      </c>
-      <c r="I13">
-        <v>0.1742286952351946</v>
-      </c>
-      <c r="J13">
-        <v>0.1742286952351946</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.029003</v>
-      </c>
-      <c r="N13">
-        <v>0.087009</v>
-      </c>
-      <c r="O13">
-        <v>0.002085734026566003</v>
-      </c>
-      <c r="P13">
-        <v>0.002085734026566003</v>
-      </c>
-      <c r="Q13">
-        <v>0.04669302214633333</v>
-      </c>
-      <c r="R13">
-        <v>0.420237199317</v>
-      </c>
-      <c r="S13">
-        <v>0.0003633947180562434</v>
-      </c>
-      <c r="T13">
-        <v>0.0003633947180562434</v>
+        <v>0.0001284941206055461</v>
       </c>
     </row>
   </sheetData>
